--- a/data/Interventions_USO-I-III.xlsx
+++ b/data/Interventions_USO-I-III.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{7C6241BA-1373-4B63-BB5E-79EE54D882B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="City Spire" sheetId="8" r:id="rId1"/>
@@ -675,6 +675,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -702,7 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1364,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045C3BAB-C025-4E52-B518-D4721B82ED61}">
   <dimension ref="A2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -1393,23 +1393,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1420,84 +1420,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1862,7 +1862,7 @@
       <c r="H24" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="25">
         <v>-941215.20000000007</v>
       </c>
       <c r="J24">
@@ -2303,7 +2303,7 @@
   <dimension ref="A2:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:M23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,23 +2331,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -2358,84 +2358,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3084,7 +3084,7 @@
   <dimension ref="A2:T40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:L22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,105 +3112,105 @@
       </c>
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3803,7 +3803,7 @@
   <dimension ref="A2:P41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:M23"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3831,23 +3831,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -3858,84 +3858,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4519,7 +4519,7 @@
   <dimension ref="A2:P41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,23 +4547,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -4574,84 +4574,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -5249,7 +5249,7 @@
   <dimension ref="A2:P41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:N23"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,23 +5277,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -5304,84 +5304,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -5981,8 +5981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,23 +6010,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -6037,84 +6037,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
